--- a/assets/files/papers_index_show.xlsx
+++ b/assets/files/papers_index_show.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AAA_AutoI_Lab\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D086F414-59C8-485E-B925-769DF8AFF9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C9B3D7-CB31-40A4-8A54-59FA8B786817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$151</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="294">
   <si>
     <t>年份</t>
   </si>
@@ -105,9 +105,6 @@
     <t>褚文博， 甘露， 李国法， 唐小林， 李克强</t>
   </si>
   <si>
-    <t>https://scholar.google.com/scholar?cluster=3476245502455093366&amp;hl=en&amp;oi=scholarr</t>
-  </si>
-  <si>
     <t>Lu Gan, Wenbo Chu, Guofa Li, Xiaolin Tang, Keqiang Li</t>
   </si>
   <si>
@@ -978,6 +975,62 @@
   </si>
   <si>
     <t>Advances in Mechanical Engineering, 2014</t>
+  </si>
+  <si>
+    <t>http://www.cjmenet.com.cn/CN/10.3901/JME.2024.22.224</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets/images/papers_img/Cross-Driver_Domain_Generalization_for_Improved_Drowsiness_Recognition_Based_on_EEG_Signals.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets/images/papers_img/Alternating interaction fusion of Image-Point cloud for Multi-Modal 3D object detection.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets/images/papers_img/Lightweight Strategies for Decision-Making of Autonomous Vehicles in Lane Change Scenarios Based on Deep Reinforcement Learning.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets/images/papers_img/Recognizing and explaining driving stress using a Shapley additive explanation model by fusing EEG and behavior signals.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets/images/papers_img/The influence of continuous tunnel driving on high-speed rail drivers’ brain responses.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets/images/papers_img/Dynamic evaluation of emergency lane occupation based on an improved driving risk field model.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets/images/papers_img/Asymmetric multimodal guidance fusion network for realtime visible and thermal semantic segmentation.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets/images/papers_img/pFedLVM_A_Large_Vision_Model_LVM-Driven_and_Latent_Feature-Based_Personalized_Federated_Learning_Framework_in_Autonomous_Driving.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets/images/papers_img/Towards robust motion control in multi-source uncertain scenarios by robust policy iteration.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets/images/papers_img/Domain adaptive driver distraction detection based on partial feature alignment and confusion-minimized classification.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets/images/papers_img/Large models for intelligent transportation systems and autonomous vehicles A survey.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets/images/papers_img/面向自动驾驶的大模型对齐技术：综述.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1446,11 +1499,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F163"/>
+  <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1460,10 +1513,11 @@
     <col min="3" max="3" width="217.58203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="73.58203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="255.58203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="190" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.83203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="35.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1480,1228 +1534,1310 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="B11" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="E11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="E15" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="9" t="s">
+      <c r="C19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="D23" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="C30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="D32" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="E28" s="3" t="s">
+      <c r="C46" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B37" s="2" t="s">
+      <c r="C58" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="E54" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D59" s="9" t="s">
+      <c r="D60" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E60" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D60" s="9" t="s">
+      <c r="B61" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D61" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C61" s="2" t="s">
+      <c r="E61" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E62" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D62" s="9" t="s">
+      <c r="C63" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D63" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E63" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D63" s="9" t="s">
+      <c r="B64" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D64" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="E63" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C64" s="2" t="s">
+      <c r="E64" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D65" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E65" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D65" s="9" t="s">
+      <c r="B66" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D66" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="E65" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C66" s="2" t="s">
+      <c r="E66" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D67" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E66" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C67" s="2" t="s">
+      <c r="E67" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D67" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F67" s="4"/>
+    </row>
+    <row r="86" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E86" s="3"/>
-    </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E87" s="3"/>
-    </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E88" s="3"/>
-    </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F88" s="3"/>
+    </row>
+    <row r="105" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E105" s="3"/>
-    </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F105" s="3"/>
+    </row>
+    <row r="113" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E113" s="3"/>
-    </row>
-    <row r="121" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F113" s="3"/>
+    </row>
+    <row r="121" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E121" s="3"/>
-    </row>
-    <row r="122" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F121" s="3"/>
+    </row>
+    <row r="122" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E122" s="3"/>
-    </row>
-    <row r="123" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F122" s="3"/>
+    </row>
+    <row r="123" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E123" s="3"/>
-    </row>
-    <row r="125" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F123" s="3"/>
+    </row>
+    <row r="125" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E125" s="3"/>
-    </row>
-    <row r="134" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F125" s="3"/>
+    </row>
+    <row r="134" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E134" s="3"/>
-    </row>
-    <row r="135" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F134" s="3"/>
+    </row>
+    <row r="135" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E135" s="3"/>
-    </row>
-    <row r="136" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F135" s="3"/>
+    </row>
+    <row r="136" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E136" s="3"/>
-    </row>
-    <row r="137" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F136" s="3"/>
+    </row>
+    <row r="137" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E137" s="3"/>
-    </row>
-    <row r="138" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F137" s="3"/>
+    </row>
+    <row r="138" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E138" s="3"/>
-    </row>
-    <row r="139" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F138" s="3"/>
+    </row>
+    <row r="139" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E139" s="3"/>
-    </row>
-    <row r="140" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F139" s="3"/>
+    </row>
+    <row r="140" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E140" s="3"/>
-    </row>
-    <row r="141" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F140" s="3"/>
+    </row>
+    <row r="141" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E141" s="3"/>
-    </row>
-    <row r="142" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F141" s="3"/>
+    </row>
+    <row r="142" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E142" s="3"/>
-    </row>
-    <row r="143" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F142" s="3"/>
+    </row>
+    <row r="143" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E143" s="3"/>
-    </row>
-    <row r="144" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F143" s="3"/>
+    </row>
+    <row r="144" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E144" s="4"/>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F144" s="4"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E145" s="3"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F145" s="3"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E146" s="3"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F146" s="3"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E147" s="3"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F147" s="3"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E148" s="3"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F148" s="3"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E149" s="3"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F149" s="3"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E150" s="3"/>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F150" s="3"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E151" s="3"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F151" s="3"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="8"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="8"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="8"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="8"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="8"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="8"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
@@ -2714,8 +2850,8 @@
       <c r="A163" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F151" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F151">
+  <autoFilter ref="A1:G151" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G151">
       <sortCondition descending="1" ref="A1:A151"/>
     </sortState>
   </autoFilter>
@@ -2738,10 +2874,11 @@
     <hyperlink ref="E26" r:id="rId15" xr:uid="{3AC98567-5822-47EF-9EB6-B8A921A1FF75}"/>
     <hyperlink ref="E10" r:id="rId16" xr:uid="{2C81BF78-EA80-46E2-B6E4-67AD45584366}"/>
     <hyperlink ref="E2" r:id="rId17" xr:uid="{9488D52E-2A30-4EB3-AC74-979C5A5C7CEB}"/>
+    <hyperlink ref="E14" r:id="rId18" xr:uid="{E093ED93-A437-46CB-802B-DCF13BA2AAA1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1 D1:F1" numberStoredAsText="1"/>
+    <ignoredError sqref="A1 G1 D1:E1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/assets/files/papers_index_show.xlsx
+++ b/assets/files/papers_index_show.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AAA_AutoI_Lab\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C9B3D7-CB31-40A4-8A54-59FA8B786817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67E1762-8368-4C33-BC84-7E8AB83542C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="304">
   <si>
     <t>年份</t>
   </si>
@@ -1030,6 +1030,45 @@
   </si>
   <si>
     <t>assets/images/papers_img/面向自动驾驶的大模型对齐技术：综述.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets/images/papers_img/</t>
+  </si>
+  <si>
+    <t>assets/images/papers_img/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets/images/papers_img/面向自动驾驶的大模型高效压缩技术：综述.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets/images/papers_img/A_Prior_Guided_Wavelet-Spatial_Dual_Attention_Transformer_Framework_for_Heavy_Rain_Image_Restoration.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets/images/papers_img/Efficient and robust estimation of single-vehicle crash severity A mixed logit model with heterogeneity in means and variances.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets/images/papers_img/Gpt-4 enhanced multimodal grounding for autonomous driving Leveraging cross-modal attention with large language models.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets/images/papers_img/SOSMaskFuse An infrared and visible image fusion architecture based on salient object segmentation mask.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets/images/papers_img/A RGB-Thermal Image Segmentation Method Based on Parameter Sharing and Attention Fusion for Safe Autonomous Driving.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets/images/papers_img/Cross-subject EEG linear domain adaption based on batch normalization and depthwise convolutional neural network.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets/images/papers_img/Effectiveness of flashing brake and hazard systems in avoiding rear-end crashes.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1130,7 +1169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1158,6 +1197,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1503,7 +1548,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1556,7 +1601,7 @@
       <c r="E2" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="10" t="s">
         <v>282</v>
       </c>
     </row>
@@ -1716,7 +1761,7 @@
       <c r="E10" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="10" t="s">
         <v>290</v>
       </c>
     </row>
@@ -1796,7 +1841,9 @@
       <c r="E14" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="F14" s="10" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -1814,6 +1861,9 @@
       <c r="E15" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="F15" s="2" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
@@ -1831,6 +1881,9 @@
       <c r="E16" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="F16" s="2" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -1848,6 +1901,9 @@
       <c r="E17" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="F17" s="2" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
@@ -1865,6 +1921,9 @@
       <c r="E18" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="F18" s="2" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
@@ -1882,6 +1941,9 @@
       <c r="E19" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="F19" s="2" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
@@ -1899,6 +1961,9 @@
       <c r="E20" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="F20" s="2" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
@@ -1916,6 +1981,9 @@
       <c r="E21" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="F21" s="2" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
@@ -1933,6 +2001,9 @@
       <c r="E22" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="F22" s="2" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
@@ -1950,6 +2021,9 @@
       <c r="E23" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="F23" s="2" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
@@ -1967,6 +2041,9 @@
       <c r="E24" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="F24" s="2" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -1984,7 +2061,9 @@
       <c r="E25" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="F25" s="3"/>
+      <c r="F25" s="2" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
@@ -2002,7 +2081,9 @@
       <c r="E26" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="F26" s="3"/>
+      <c r="F26" s="2" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
@@ -2020,7 +2101,9 @@
       <c r="E27" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F27" s="3"/>
+      <c r="F27" s="2" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
@@ -2038,7 +2121,9 @@
       <c r="E28" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="F28" s="3"/>
+      <c r="F28" s="2" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
@@ -2056,7 +2141,9 @@
       <c r="E29" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F29" s="3"/>
+      <c r="F29" s="2" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -2074,6 +2161,9 @@
       <c r="E30" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="F30" s="2" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -2091,6 +2181,9 @@
       <c r="E31" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="F31" s="2" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -2108,6 +2201,9 @@
       <c r="E32" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="F32" s="2" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -2125,6 +2221,9 @@
       <c r="E33" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="F33" s="2" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
@@ -2142,6 +2241,9 @@
       <c r="E34" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="F34" s="2" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
@@ -2159,6 +2261,9 @@
       <c r="E35" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="F35" s="2" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
@@ -2176,6 +2281,9 @@
       <c r="E36" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="F36" s="2" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
@@ -2193,6 +2301,9 @@
       <c r="E37" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="F37" s="2" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
@@ -2210,7 +2321,9 @@
       <c r="E38" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="F38" s="3"/>
+      <c r="F38" s="2" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
@@ -2228,6 +2341,9 @@
       <c r="E39" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="F39" s="2" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
@@ -2245,6 +2361,9 @@
       <c r="E40" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="F40" s="2" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
@@ -2262,6 +2381,9 @@
       <c r="E41" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="F41" s="2" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
@@ -2279,6 +2401,9 @@
       <c r="E42" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="F42" s="2" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
@@ -2296,6 +2421,9 @@
       <c r="E43" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="F43" s="2" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
@@ -2313,6 +2441,9 @@
       <c r="E44" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="F44" s="2" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
@@ -2330,6 +2461,9 @@
       <c r="E45" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="F45" s="2" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
@@ -2347,6 +2481,9 @@
       <c r="E46" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="F46" s="2" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
@@ -2364,6 +2501,9 @@
       <c r="E47" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="F47" s="2" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
@@ -2381,6 +2521,9 @@
       <c r="E48" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="F48" s="2" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
@@ -2398,6 +2541,9 @@
       <c r="E49" s="2" t="s">
         <v>99</v>
       </c>
+      <c r="F49" s="2" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
@@ -2415,6 +2561,9 @@
       <c r="E50" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="F50" s="2" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
@@ -2432,6 +2581,9 @@
       <c r="E51" s="2" t="s">
         <v>91</v>
       </c>
+      <c r="F51" s="2" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
@@ -2449,6 +2601,9 @@
       <c r="E52" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="F52" s="2" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
@@ -2466,6 +2621,9 @@
       <c r="E53" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="F53" s="2" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
@@ -2483,6 +2641,9 @@
       <c r="E54" s="2" t="s">
         <v>101</v>
       </c>
+      <c r="F54" s="2" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
@@ -2500,6 +2661,9 @@
       <c r="E55" s="2" t="s">
         <v>89</v>
       </c>
+      <c r="F55" s="2" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
@@ -2517,6 +2681,9 @@
       <c r="E56" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="F56" s="2" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
@@ -2534,6 +2701,9 @@
       <c r="E57" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="F57" s="2" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
@@ -2551,7 +2721,9 @@
       <c r="E58" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="F58" s="3"/>
+      <c r="F58" s="2" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
@@ -2569,7 +2741,9 @@
       <c r="E59" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F59" s="4"/>
+      <c r="F59" s="2" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
@@ -2587,6 +2761,9 @@
       <c r="E60" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="F60" s="2" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
@@ -2604,7 +2781,9 @@
       <c r="E61" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F61" s="4"/>
+      <c r="F61" s="2" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
@@ -2622,7 +2801,9 @@
       <c r="E62" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F62" s="4"/>
+      <c r="F62" s="2" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
@@ -2640,7 +2821,9 @@
       <c r="E63" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F63" s="4"/>
+      <c r="F63" s="2" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
@@ -2658,7 +2841,9 @@
       <c r="E64" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F64" s="4"/>
+      <c r="F64" s="2" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
@@ -2676,7 +2861,9 @@
       <c r="E65" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F65" s="4"/>
+      <c r="F65" s="2" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
@@ -2694,7 +2881,9 @@
       <c r="E66" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F66" s="4"/>
+      <c r="F66" s="2" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
@@ -2712,115 +2901,117 @@
       <c r="E67" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F67" s="4"/>
+      <c r="F67" s="2" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="86" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
+      <c r="F86" s="10"/>
     </row>
     <row r="87" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
+      <c r="F87" s="10"/>
     </row>
     <row r="88" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
+      <c r="F88" s="10"/>
     </row>
     <row r="105" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
+      <c r="F105" s="10"/>
     </row>
     <row r="113" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
+      <c r="F113" s="10"/>
     </row>
     <row r="121" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
+      <c r="F121" s="10"/>
     </row>
     <row r="122" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
+      <c r="F122" s="10"/>
     </row>
     <row r="123" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E123" s="3"/>
-      <c r="F123" s="3"/>
+      <c r="F123" s="10"/>
     </row>
     <row r="125" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
+      <c r="F125" s="10"/>
     </row>
     <row r="134" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
+      <c r="F134" s="10"/>
     </row>
     <row r="135" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
+      <c r="F135" s="10"/>
     </row>
     <row r="136" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E136" s="3"/>
-      <c r="F136" s="3"/>
+      <c r="F136" s="10"/>
     </row>
     <row r="137" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E137" s="3"/>
-      <c r="F137" s="3"/>
+      <c r="F137" s="10"/>
     </row>
     <row r="138" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E138" s="3"/>
-      <c r="F138" s="3"/>
+      <c r="F138" s="10"/>
     </row>
     <row r="139" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E139" s="3"/>
-      <c r="F139" s="3"/>
+      <c r="F139" s="10"/>
     </row>
     <row r="140" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
+      <c r="F140" s="10"/>
     </row>
     <row r="141" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E141" s="3"/>
-      <c r="F141" s="3"/>
+      <c r="F141" s="10"/>
     </row>
     <row r="142" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E142" s="3"/>
-      <c r="F142" s="3"/>
+      <c r="F142" s="10"/>
     </row>
     <row r="143" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E143" s="3"/>
-      <c r="F143" s="3"/>
+      <c r="F143" s="10"/>
     </row>
     <row r="144" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E144" s="4"/>
-      <c r="F144" s="4"/>
+      <c r="F144" s="11"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E145" s="3"/>
-      <c r="F145" s="3"/>
+      <c r="F145" s="10"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E146" s="3"/>
-      <c r="F146" s="3"/>
+      <c r="F146" s="10"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E147" s="3"/>
-      <c r="F147" s="3"/>
+      <c r="F147" s="10"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E148" s="3"/>
-      <c r="F148" s="3"/>
+      <c r="F148" s="10"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E149" s="3"/>
-      <c r="F149" s="3"/>
+      <c r="F149" s="10"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E150" s="3"/>
-      <c r="F150" s="3"/>
+      <c r="F150" s="10"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E151" s="3"/>
-      <c r="F151" s="3"/>
+      <c r="F151" s="10"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="8"/>

--- a/assets/files/papers_index_show.xlsx
+++ b/assets/files/papers_index_show.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AAA_AutoI_Lab\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B212D13C-4928-46BB-8BC1-C358F3591228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99090C69-E310-4D21-A483-FBCFAE8265E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1166,9 +1166,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
